--- a/design/テスト項目.xlsx
+++ b/design/テスト項目.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\オンラインスキルアップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\BrestoChatter\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="トップ画面" sheetId="3" r:id="rId1"/>
@@ -790,16 +790,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チャットボードに表示すべきチャットがリーフとして表示されていること</t>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チャット1つ1つに投稿者、日付、内容、チャットボードへの表示ON／OFFボタンが表示されていること</t>
     <rPh sb="9" eb="12">
       <t>トウコウシャ</t>
@@ -958,35 +948,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リーフが移動者の意図に合わせて移動されていること</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャットボードのリーフを移動している／されている時</t>
-    <rPh sb="12" eb="14">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自ユーザーの移動のみ反映させる（第3者から見ると凄い移動になっているかも）</t>
     <rPh sb="0" eb="1">
       <t>ジ</t>
@@ -1015,28 +976,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リーフの移動中に他ユーザーもそのリーフの移動を行おうとしている時</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>遷移チェック(グルーピング)</t>
     <rPh sb="0" eb="2">
       <t>センイ</t>
@@ -1076,28 +1015,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ドラッグで作られた長方形の領域に含まれているリーフの色が変化されていること</t>
-    <rPh sb="5" eb="6">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>チョウホウケイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>リョウイキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヘンカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>グルーピングを選択した／された時</t>
     <rPh sb="7" eb="9">
       <t>センタク</t>
@@ -1143,28 +1060,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>右ドラッグ終了時、選択領域内にリーフが1つ以上あるとき</t>
-    <rPh sb="0" eb="1">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>シュウリョウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>リョウイキ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>遷移チェック(アングルーピング)</t>
     <rPh sb="0" eb="2">
       <t>センイ</t>
@@ -1172,43 +1067,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>選択されたリーフをまとめたグルーピングリーフが代わりに表示されていること</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グルーピングリーフを右クリックした時</t>
-    <rPh sb="10" eb="11">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リーフのグルーピングがメニューに表示されていること</t>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リーフのアングルーピングがメニューに表示されていること</t>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アングルーピングを選択した／された時</t>
     <rPh sb="9" eb="11">
       <t>センタク</t>
@@ -1219,19 +1077,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>グルーピングリーフに含まれていたリーフを全て表示させる</t>
-    <rPh sb="10" eb="11">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>遷移チェック(グル―ピング内容の表示)</t>
     <rPh sb="0" eb="2">
       <t>センイ</t>
@@ -1245,52 +1090,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>グルーピングリーフのアコーディオンボタン「＋」をクリックした時</t>
-    <rPh sb="30" eb="31">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グルーピングリーフのアコーディオンボタン「－」をクリックした時</t>
-    <rPh sb="30" eb="31">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グルーピングリーフに含まれていたリーフ内容を閉じる</t>
-    <rPh sb="10" eb="11">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グルーピングリーフに含まれていたリーフ内容をアコーディオン動作でリスト形式で表示させる</t>
-    <rPh sb="10" eb="11">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作成した部屋のページ(/chat?room=___)へ遷移すること</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
@@ -1300,6 +1099,207 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャットボードに表示すべきチャットがラベルとして表示されていること</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャットボードのラベルを移動している／されている時</t>
+    <rPh sb="12" eb="14">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベルが移動者の意図に合わせて移動されていること</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベルの移動中に他ユーザーもそのラベルの移動を行おうとしている時</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラッグで作られた長方形の領域に含まれているラベルの色が変化されていること</t>
+    <rPh sb="5" eb="6">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>チョウホウケイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右ドラッグ終了時、選択領域内にラベルが1つ以上あるとき</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シュウリョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベルのグルーピングがメニューに表示されていること</t>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択されたラベルをまとめたグルーピングラベルが代わりに表示されていること</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベルのアングルーピングがメニューに表示されていること</t>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループボックスのアコーディオンボタン「＋」をクリックした時</t>
+    <rPh sb="29" eb="30">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループボックスのアコーディオンボタン「－」をクリックした時</t>
+    <rPh sb="29" eb="30">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループボックスを右クリックした時</t>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループボックスに含まれていたラベル内容をアコーディオン動作でリスト形式で表示させる</t>
+    <rPh sb="9" eb="10">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループボックスに含まれていたラベル内容を閉じる</t>
+    <rPh sb="9" eb="10">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループボックスに含まれていたラベルを全て表示させる</t>
+    <rPh sb="9" eb="10">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2047,6 +2047,174 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2056,162 +2224,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2221,27 +2266,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2252,30 +2276,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2649,7 +2649,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2665,19 +2665,19 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="31">
         <v>42130</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="30" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2706,17 +2706,17 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="29" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="1"/>
@@ -2767,327 +2767,330 @@
     </row>
     <row r="6" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="10" t="s">
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="2" t="s">
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="60"/>
     </row>
     <row r="8" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="33" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="68"/>
+      <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16">
+    <row r="9" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="35" t="s">
+      <c r="D9" s="66"/>
+      <c r="E9" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="18"/>
-    </row>
-    <row r="10" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22">
+      <c r="F9" s="67"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="37" t="s">
+      <c r="D10" s="56"/>
+      <c r="E10" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="24"/>
-    </row>
-    <row r="11" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22">
+      <c r="F10" s="51"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="37" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="37" t="s">
+      <c r="D11" s="56"/>
+      <c r="E11" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="24"/>
-    </row>
-    <row r="12" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22">
+      <c r="F11" s="51"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="37" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="50" t="s">
+      <c r="D12" s="56"/>
+      <c r="E12" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="24"/>
-    </row>
-    <row r="13" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22">
+      <c r="F12" s="53"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="37" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="37" t="s">
+      <c r="D13" s="56"/>
+      <c r="E13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="24"/>
-    </row>
-    <row r="14" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
+      <c r="F13" s="51"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="37" t="s">
+      <c r="D14" s="56"/>
+      <c r="E14" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="24"/>
-    </row>
-    <row r="15" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
+      <c r="F14" s="51"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="37" t="s">
+      <c r="D15" s="56"/>
+      <c r="E15" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="24"/>
-    </row>
-    <row r="16" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22">
+      <c r="F15" s="51"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="37" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="37" t="s">
+      <c r="D16" s="56"/>
+      <c r="E16" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="24"/>
-    </row>
-    <row r="17" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27">
+      <c r="F16" s="51"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
         <v>9</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="39" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="29"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E15:F15"/>
@@ -3098,14 +3101,11 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I9:I17 Q9:Q17">
@@ -3131,7 +3131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="8" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
@@ -3159,7 +3159,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3175,19 +3175,19 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="31">
         <v>42130</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="29" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -3216,17 +3216,17 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="29" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="1"/>
@@ -3277,296 +3277,309 @@
     </row>
     <row r="6" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="10" t="s">
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="2" t="s">
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="60"/>
     </row>
     <row r="8" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="57" t="s">
+      <c r="D8" s="73"/>
+      <c r="E8" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60" t="s">
+      <c r="F8" s="74"/>
+      <c r="G8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="61" t="s">
+      <c r="H8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="61" t="s">
+      <c r="I8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="63" t="s">
+      <c r="K8" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="61" t="s">
+      <c r="L8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="61" t="s">
+      <c r="M8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="64" t="s">
+      <c r="N8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="60" t="s">
+      <c r="O8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="61" t="s">
+      <c r="P8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="61" t="s">
+      <c r="Q8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="62" t="s">
+      <c r="R8" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="21" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="65">
+    <row r="9" spans="1:18" s="16" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="40">
         <v>1</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69" t="s">
+      <c r="D9" s="76"/>
+      <c r="E9" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="71"/>
-    </row>
-    <row r="10" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22">
+      <c r="F9" s="78"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="42"/>
+    </row>
+    <row r="10" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="37" t="s">
+      <c r="D10" s="56"/>
+      <c r="E10" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="24"/>
-    </row>
-    <row r="11" spans="1:18" s="21" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22">
+      <c r="F10" s="51"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="1:18" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="37" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="37" t="s">
+      <c r="D11" s="56"/>
+      <c r="E11" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="24"/>
-    </row>
-    <row r="12" spans="1:18" s="21" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22">
+      <c r="F11" s="51"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="1:18" s="16" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="52" t="s">
+      <c r="D12" s="70"/>
+      <c r="E12" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="24"/>
-    </row>
-    <row r="13" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22">
+      <c r="F12" s="71"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="37" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="37" t="s">
+      <c r="D13" s="56"/>
+      <c r="E13" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="24"/>
-    </row>
-    <row r="14" spans="1:18" s="21" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
+      <c r="F13" s="51"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:18" s="16" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="37" t="s">
+      <c r="D14" s="56"/>
+      <c r="E14" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="24"/>
-    </row>
-    <row r="15" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
+      <c r="F14" s="51"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="37" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="37" t="s">
+      <c r="D15" s="56"/>
+      <c r="E15" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="24"/>
-    </row>
-    <row r="16" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27">
+      <c r="F15" s="51"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22">
         <v>8</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="29"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="C13:D13"/>
@@ -3575,19 +3588,6 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I9:I16 Q9:Q16">
@@ -3613,11 +3613,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="8" topLeftCell="G24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14:F14"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3641,7 +3641,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3657,19 +3657,19 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="31">
         <v>42130</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="29" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -3698,17 +3698,17 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="29" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="1"/>
@@ -3762,594 +3762,615 @@
     </row>
     <row r="6" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="10" t="s">
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="2" t="s">
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="60"/>
     </row>
     <row r="8" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="57" t="s">
+      <c r="D8" s="73"/>
+      <c r="E8" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60" t="s">
+      <c r="F8" s="74"/>
+      <c r="G8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="61" t="s">
+      <c r="H8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="61" t="s">
+      <c r="I8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="63" t="s">
+      <c r="K8" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="61" t="s">
+      <c r="L8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="61" t="s">
+      <c r="M8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="64" t="s">
+      <c r="N8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="60" t="s">
+      <c r="O8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="61" t="s">
+      <c r="P8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="61" t="s">
+      <c r="Q8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="62" t="s">
+      <c r="R8" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="65">
+    <row r="9" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="40">
         <v>1</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="67" t="s">
+      <c r="D9" s="76"/>
+      <c r="E9" s="75" t="s">
         <v>67</v>
       </c>
       <c r="F9" s="79"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="71"/>
-    </row>
-    <row r="10" spans="1:18" s="21" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22">
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="42"/>
+    </row>
+    <row r="10" spans="1:18" s="16" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="37" t="s">
+      <c r="D10" s="56"/>
+      <c r="E10" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="56"/>
+      <c r="E12" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="24"/>
-    </row>
-    <row r="11" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22">
-        <v>3</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="24"/>
-    </row>
-    <row r="12" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22">
-        <v>4</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="37" t="s">
+      <c r="F12" s="51"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
+        <v>5</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="24"/>
-    </row>
-    <row r="13" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22">
-        <v>5</v>
-      </c>
-      <c r="B13" s="23" t="s">
+      <c r="C13" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="D13" s="56"/>
+      <c r="E13" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="37" t="s">
+      <c r="F13" s="51"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="17">
+        <v>6</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="24"/>
-    </row>
-    <row r="14" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
-        <v>6</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="37" t="s">
+      <c r="D14" s="56"/>
+      <c r="E14" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="37" t="s">
+      <c r="F14" s="51"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17">
+        <v>7</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="56"/>
+      <c r="E15" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="24"/>
-    </row>
-    <row r="15" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
-        <v>7</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="37" t="s">
+      <c r="F15" s="51"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="1:18" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="17">
+        <v>8</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="24"/>
-    </row>
-    <row r="16" spans="1:18" s="21" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22">
-        <v>8</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="37" t="s">
+      <c r="D16" s="56"/>
+      <c r="E16" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="37" t="s">
+      <c r="F16" s="51"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="51"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="1:18" s="16" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="45">
+        <v>10</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="24"/>
-    </row>
-    <row r="17" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22">
-        <v>9</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="37" t="s">
+      <c r="F18" s="51"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="49"/>
+    </row>
+    <row r="19" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17">
+        <v>11</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="24"/>
-    </row>
-    <row r="18" spans="1:18" s="21" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="74">
-        <v>10</v>
-      </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="37" t="s">
+      <c r="D19" s="70"/>
+      <c r="E19" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="71"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="49"/>
+    </row>
+    <row r="20" spans="1:18" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="45">
+        <v>12</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="70"/>
+      <c r="E20" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="71"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="49"/>
+    </row>
+    <row r="21" spans="1:18" s="16" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="17">
+        <v>13</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="70"/>
+      <c r="E21" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="71"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="49"/>
+    </row>
+    <row r="22" spans="1:18" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="45">
+        <v>14</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="78"/>
-    </row>
-    <row r="19" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22">
-        <v>11</v>
-      </c>
-      <c r="B19" s="75" t="s">
+      <c r="D22" s="56"/>
+      <c r="E22" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="51"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="49"/>
+    </row>
+    <row r="23" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17">
+        <v>15</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="D23" s="56"/>
+      <c r="E23" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="52" t="s">
+      <c r="F23" s="51"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="49"/>
+    </row>
+    <row r="24" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17">
+        <v>16</v>
+      </c>
+      <c r="B24" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="78"/>
-    </row>
-    <row r="20" spans="1:18" s="21" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="74">
-        <v>12</v>
-      </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="52" t="s">
+      <c r="C24" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="51"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="49"/>
+    </row>
+    <row r="25" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17">
+        <v>17</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="78"/>
-    </row>
-    <row r="21" spans="1:18" s="21" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="22">
-        <v>13</v>
-      </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="78"/>
-    </row>
-    <row r="22" spans="1:18" s="21" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="74">
-        <v>14</v>
-      </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="37" t="s">
+      <c r="D25" s="56"/>
+      <c r="E25" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="51"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="49"/>
+    </row>
+    <row r="26" spans="1:18" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17">
+        <v>18</v>
+      </c>
+      <c r="B26" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="78"/>
-    </row>
-    <row r="23" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22">
-        <v>15</v>
-      </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="78"/>
-    </row>
-    <row r="24" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22">
-        <v>16</v>
-      </c>
-      <c r="B24" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="78"/>
-    </row>
-    <row r="25" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22">
-        <v>17</v>
-      </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="78"/>
-    </row>
-    <row r="26" spans="1:18" s="21" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22">
-        <v>18</v>
-      </c>
-      <c r="B26" s="75" t="s">
+      <c r="C26" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="51"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="49"/>
+    </row>
+    <row r="27" spans="1:18" s="16" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22">
+        <v>19</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="37" t="s">
+      <c r="D27" s="57"/>
+      <c r="E27" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="78"/>
-    </row>
-    <row r="27" spans="1:18" s="21" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27">
-        <v>19</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="29"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C19:D19"/>
@@ -4360,33 +4381,12 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I9:I27 Q9:Q27">
@@ -4440,7 +4440,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4456,15 +4456,15 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="46" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="29" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="1"/>
@@ -4491,15 +4491,15 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="29" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="1"/>
@@ -4550,307 +4550,306 @@
     </row>
     <row r="6" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="10" t="s">
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="2" t="s">
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="60"/>
     </row>
     <row r="8" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="33" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="68"/>
+      <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16">
+    <row r="9" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
         <v>1</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="18"/>
-    </row>
-    <row r="10" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22">
+      <c r="B9" s="12"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="24"/>
-    </row>
-    <row r="11" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22">
+      <c r="B10" s="18"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="24"/>
-    </row>
-    <row r="12" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22">
+      <c r="B11" s="18"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="24"/>
-    </row>
-    <row r="13" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22">
+      <c r="B12" s="18"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="24"/>
-    </row>
-    <row r="14" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
+      <c r="B13" s="18"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="24"/>
-    </row>
-    <row r="15" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
+      <c r="B14" s="18"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="24"/>
-    </row>
-    <row r="16" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22">
+      <c r="B15" s="18"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="24"/>
-    </row>
-    <row r="17" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22">
+      <c r="B16" s="18"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17">
         <v>9</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="24"/>
-    </row>
-    <row r="18" spans="1:18" s="21" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
+      <c r="B17" s="18"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="1:18" s="16" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
         <v>10</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="29"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:R7"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C16:D16"/>
@@ -4867,10 +4866,11 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I9:I18 Q9:Q18">

--- a/design/テスト項目.xlsx
+++ b/design/テスト項目.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="114">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
@@ -1300,6 +1300,103 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大沼 峻徳</t>
+    <rPh sb="0" eb="2">
+      <t>オオヌマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シュン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認ではないが部屋が無いときの処理を別途には書いていない</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鍵が未実装</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際は「名前がありません」が表示</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際は「チャットがありません」が表示（表現があやしいかも）</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベルの移動は他者からはカクカクした動きになる</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タシャ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2040,7 +2137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2194,58 +2291,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2257,35 +2375,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2621,10 +2740,10 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="8" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2637,7 +2756,7 @@
     <col min="7" max="7" width="10.375" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
     <col min="9" max="9" width="6.625" customWidth="1"/>
-    <col min="10" max="10" width="24.375" customWidth="1"/>
+    <col min="10" max="10" width="26.125" customWidth="1"/>
     <col min="11" max="11" width="10.375" customWidth="1"/>
     <col min="12" max="12" width="12.125" customWidth="1"/>
     <col min="13" max="13" width="7.125" customWidth="1"/>
@@ -2688,7 +2807,7 @@
       </c>
       <c r="I3" s="1">
         <f>COUNTIF(I9:I17, H3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>15</v>
@@ -2725,7 +2844,7 @@
       </c>
       <c r="I4" s="1">
         <f>COUNTIF(I10:I18, H4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>16</v>
@@ -2748,7 +2867,7 @@
       </c>
       <c r="I5" s="1">
         <f>COUNTBLANK(I9:I17)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>17</v>
@@ -2770,24 +2889,24 @@
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="58" t="s">
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="60"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="58"/>
     </row>
     <row r="8" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -2796,14 +2915,14 @@
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="63" t="s">
+      <c r="D8" s="61"/>
+      <c r="E8" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
@@ -2848,17 +2967,23 @@
       <c r="B9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="65" t="s">
+      <c r="D9" s="62"/>
+      <c r="E9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="80">
+        <v>42153</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="J9" s="13"/>
       <c r="K9" s="14"/>
       <c r="L9" s="12"/>
@@ -2877,14 +3002,20 @@
       <c r="C10" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="56"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="12"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
       <c r="L10" s="18"/>
@@ -2903,14 +3034,20 @@
       <c r="C11" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="56"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="12"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
       <c r="L11" s="18"/>
@@ -2929,15 +3066,23 @@
       <c r="C12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="52" t="s">
+      <c r="D12" s="51"/>
+      <c r="E12" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="19"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="K12" s="20"/>
       <c r="L12" s="18"/>
       <c r="M12" s="12"/>
@@ -2955,15 +3100,23 @@
       <c r="C13" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="56"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="19"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>109</v>
+      </c>
       <c r="K13" s="20"/>
       <c r="L13" s="18"/>
       <c r="M13" s="12"/>
@@ -2983,15 +3136,23 @@
       <c r="C14" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="56"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="19"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="K14" s="20"/>
       <c r="L14" s="18"/>
       <c r="M14" s="12"/>
@@ -3011,14 +3172,20 @@
       <c r="C15" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="56"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="12"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
       <c r="L15" s="18"/>
@@ -3037,15 +3204,21 @@
       <c r="C16" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="51"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="19"/>
+      <c r="H16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="K16" s="20"/>
       <c r="L16" s="18"/>
       <c r="M16" s="12"/>
@@ -3060,17 +3233,21 @@
         <v>9</v>
       </c>
       <c r="B17" s="23"/>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="54" t="s">
+      <c r="D17" s="66"/>
+      <c r="E17" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="55"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="25"/>
+      <c r="H17" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>106</v>
+      </c>
       <c r="J17" s="24"/>
       <c r="K17" s="26"/>
       <c r="L17" s="23"/>
@@ -3083,11 +3260,8 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="O7:R7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
@@ -3104,17 +3278,20 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:N7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I9:I17 Q9:Q17">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:M17">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3124,6 +3301,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3132,10 +3310,10 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="8" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3198,7 +3376,7 @@
       </c>
       <c r="I3" s="1">
         <f>COUNTIF(I9:I16, H3)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>15</v>
@@ -3235,7 +3413,7 @@
       </c>
       <c r="I4" s="1">
         <f>COUNTIF(I10:I17, H4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>16</v>
@@ -3258,7 +3436,7 @@
       </c>
       <c r="I5" s="1">
         <f>COUNTBLANK(I9:I16)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>17</v>
@@ -3280,24 +3458,24 @@
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="58" t="s">
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="60"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="58"/>
     </row>
     <row r="8" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -3306,14 +3484,14 @@
       <c r="B8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="72" t="s">
+      <c r="D8" s="74"/>
+      <c r="E8" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="74"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="35" t="s">
         <v>7</v>
       </c>
@@ -3358,18 +3536,26 @@
       <c r="B9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77" t="s">
+      <c r="D9" s="70"/>
+      <c r="E9" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="78"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="82">
+        <v>42153</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>110</v>
+      </c>
       <c r="K9" s="43"/>
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
@@ -3389,14 +3575,20 @@
       <c r="C10" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="56"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="12"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
       <c r="L10" s="18"/>
@@ -3415,15 +3607,23 @@
       <c r="C11" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="56"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="19"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="K11" s="20"/>
       <c r="L11" s="18"/>
       <c r="M11" s="12"/>
@@ -3440,18 +3640,26 @@
       <c r="B12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="69" t="s">
+      <c r="D12" s="77"/>
+      <c r="E12" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="19"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="K12" s="20"/>
       <c r="L12" s="18"/>
       <c r="M12" s="12"/>
@@ -3469,15 +3677,23 @@
       <c r="C13" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="56"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="19"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="K13" s="20"/>
       <c r="L13" s="18"/>
       <c r="M13" s="12"/>
@@ -3495,14 +3711,20 @@
       <c r="C14" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="56"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="12"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
       <c r="L14" s="18"/>
@@ -3521,14 +3743,20 @@
       <c r="C15" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="56"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="12"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
       <c r="L15" s="18"/>
@@ -3544,17 +3772,23 @@
         <v>8</v>
       </c>
       <c r="B16" s="23"/>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="54" t="s">
+      <c r="D16" s="66"/>
+      <c r="E16" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="25"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="83">
+        <v>42153</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>106</v>
+      </c>
       <c r="J16" s="24"/>
       <c r="K16" s="26"/>
       <c r="L16" s="23"/>
@@ -3567,19 +3801,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="C13:D13"/>
@@ -3588,15 +3809,28 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I9:I16 Q9:Q16">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:M16">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3614,10 +3848,10 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="8" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25:F25"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3680,7 +3914,7 @@
       </c>
       <c r="I3" s="1">
         <f>COUNTIF(I9:I27, H3)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>15</v>
@@ -3717,7 +3951,7 @@
       </c>
       <c r="I4" s="1">
         <f>COUNTIF(I10:I28, H4)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>16</v>
@@ -3743,7 +3977,7 @@
       </c>
       <c r="I5" s="1">
         <f>COUNTBLANK(I9:I27)</f>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>17</v>
@@ -3765,24 +3999,24 @@
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="58" t="s">
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="60"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="58"/>
     </row>
     <row r="8" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -3791,14 +4025,14 @@
       <c r="B8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="72" t="s">
+      <c r="D8" s="74"/>
+      <c r="E8" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="74"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="35" t="s">
         <v>7</v>
       </c>
@@ -3843,17 +4077,23 @@
       <c r="B9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="75" t="s">
+      <c r="D9" s="70"/>
+      <c r="E9" s="69" t="s">
         <v>67</v>
       </c>
       <c r="F9" s="79"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="G9" s="82">
+        <v>42153</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>106</v>
+      </c>
       <c r="J9" s="42"/>
       <c r="K9" s="43"/>
       <c r="L9" s="41"/>
@@ -3872,14 +4112,20 @@
       <c r="C10" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="56"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="12"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
       <c r="L10" s="18"/>
@@ -3898,14 +4144,20 @@
       <c r="C11" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="56"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="12"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
       <c r="L11" s="18"/>
@@ -3924,14 +4176,20 @@
       <c r="C12" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="56"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="12"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
       <c r="L12" s="18"/>
@@ -3952,15 +4210,23 @@
       <c r="C13" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="56"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="19"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>111</v>
+      </c>
       <c r="K13" s="20"/>
       <c r="L13" s="18"/>
       <c r="M13" s="12"/>
@@ -3978,15 +4244,23 @@
       <c r="C14" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="56"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="19"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="K14" s="20"/>
       <c r="L14" s="18"/>
       <c r="M14" s="12"/>
@@ -4006,14 +4280,20 @@
       <c r="C15" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="56"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="12"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
       <c r="L15" s="18"/>
@@ -4032,14 +4312,20 @@
       <c r="C16" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="12"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="J16" s="19"/>
       <c r="K16" s="20"/>
       <c r="L16" s="18"/>
@@ -4058,15 +4344,23 @@
       <c r="C17" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="56"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="19"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="81">
+        <v>42153</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>113</v>
+      </c>
       <c r="K17" s="20"/>
       <c r="L17" s="18"/>
       <c r="M17" s="12"/>
@@ -4084,11 +4378,11 @@
       <c r="C18" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="56"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="51"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="45"/>
       <c r="H18" s="46"/>
       <c r="I18" s="18"/>
@@ -4109,18 +4403,26 @@
       <c r="B19" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="69" t="s">
+      <c r="D19" s="77"/>
+      <c r="E19" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="49"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="84">
+        <v>42153</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="49" t="s">
+        <v>108</v>
+      </c>
       <c r="K19" s="48"/>
       <c r="L19" s="46"/>
       <c r="M19" s="18"/>
@@ -4135,18 +4437,26 @@
         <v>12</v>
       </c>
       <c r="B20" s="46"/>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="69" t="s">
+      <c r="D20" s="77"/>
+      <c r="E20" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="49"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="84">
+        <v>42154</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>108</v>
+      </c>
       <c r="K20" s="48"/>
       <c r="L20" s="46"/>
       <c r="M20" s="18"/>
@@ -4161,18 +4471,26 @@
         <v>13</v>
       </c>
       <c r="B21" s="46"/>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="69" t="s">
+      <c r="D21" s="77"/>
+      <c r="E21" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="49"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="84">
+        <v>42155</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" s="49" t="s">
+        <v>108</v>
+      </c>
       <c r="K21" s="48"/>
       <c r="L21" s="46"/>
       <c r="M21" s="18"/>
@@ -4190,15 +4508,23 @@
       <c r="C22" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="56"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="49"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="84">
+        <v>42156</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="49" t="s">
+        <v>108</v>
+      </c>
       <c r="K22" s="48"/>
       <c r="L22" s="46"/>
       <c r="M22" s="18"/>
@@ -4216,15 +4542,23 @@
       <c r="C23" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="56"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="49"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="84">
+        <v>42157</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="49" t="s">
+        <v>108</v>
+      </c>
       <c r="K23" s="48"/>
       <c r="L23" s="46"/>
       <c r="M23" s="18"/>
@@ -4244,15 +4578,23 @@
       <c r="C24" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="56"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="49"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="84">
+        <v>42158</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="49" t="s">
+        <v>108</v>
+      </c>
       <c r="K24" s="48"/>
       <c r="L24" s="46"/>
       <c r="M24" s="18"/>
@@ -4270,15 +4612,23 @@
       <c r="C25" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="56"/>
+      <c r="D25" s="51"/>
       <c r="E25" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="49"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="84">
+        <v>42159</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="49" t="s">
+        <v>108</v>
+      </c>
       <c r="K25" s="48"/>
       <c r="L25" s="46"/>
       <c r="M25" s="18"/>
@@ -4298,15 +4648,23 @@
       <c r="C26" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="56"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="49"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="84">
+        <v>42160</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J26" s="49" t="s">
+        <v>108</v>
+      </c>
       <c r="K26" s="48"/>
       <c r="L26" s="46"/>
       <c r="M26" s="18"/>
@@ -4321,18 +4679,26 @@
         <v>19</v>
       </c>
       <c r="B27" s="23"/>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="54" t="s">
+      <c r="D27" s="66"/>
+      <c r="E27" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="83">
+        <v>42153</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="K27" s="26"/>
       <c r="L27" s="23"/>
       <c r="M27" s="23"/>
@@ -4344,33 +4710,12 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C19:D19"/>
@@ -4381,26 +4726,47 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="I9:I27 Q9:Q27">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="Q9:Q27 I9:I27">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:M27">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I27 M9:M27 Q9:Q27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q27 M9:M27 I9:I27">
       <formula1>$H$3:$H$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -4553,24 +4919,24 @@
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="58" t="s">
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="60"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="58"/>
     </row>
     <row r="8" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -4579,14 +4945,14 @@
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="63" t="s">
+      <c r="D8" s="61"/>
+      <c r="E8" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4629,10 +4995,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="67"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -4652,9 +5018,9 @@
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="50"/>
-      <c r="D10" s="56"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
       <c r="I10" s="12"/>
@@ -4674,9 +5040,9 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="50"/>
-      <c r="D11" s="56"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
       <c r="I11" s="12"/>
@@ -4696,9 +5062,9 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="50"/>
-      <c r="D12" s="56"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
       <c r="I12" s="12"/>
@@ -4718,9 +5084,9 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="50"/>
-      <c r="D13" s="56"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="12"/>
@@ -4740,9 +5106,9 @@
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="50"/>
-      <c r="D14" s="56"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="12"/>
@@ -4762,9 +5128,9 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="50"/>
-      <c r="D15" s="56"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="12"/>
@@ -4784,9 +5150,9 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="50"/>
-      <c r="D16" s="56"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
       <c r="I16" s="12"/>
@@ -4806,9 +5172,9 @@
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="50"/>
-      <c r="D17" s="56"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
       <c r="I17" s="12"/>
@@ -4827,10 +5193,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="23"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="22"/>
       <c r="H18" s="23"/>
       <c r="I18" s="25"/>
@@ -4846,6 +5212,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="K7:N7"/>
@@ -4862,24 +5237,15 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I9:I18 Q9:Q18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:M18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
